--- a/testcase_orange_hrm.xlsx
+++ b/testcase_orange_hrm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -83,7 +83,18 @@
 - Login, Cancel: button</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>1. Open Employee Management system
+2. Open login screen
+3. Observe the default value</t>
+  </si>
+  <si>
+    <t>Default value is blank</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Verify that default value is blank when user open login screen at the first time</t>
   </si>
 </sst>
 </file>
@@ -153,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -167,6 +177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,15 +467,15 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
@@ -470,109 +486,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="132" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
